--- a/大学信息技术/项目3/实训2/学生成绩表.xlsx
+++ b/大学信息技术/项目3/实训2/学生成绩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\实训素材\IT实践指导-各项目素材\各项目素材\项目3\实训2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,51 +231,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>智能物联20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>03班20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学年第一学期成绩汇总表</t>
-    </r>
+    <t>智能物联2003班2020～2021学年第一学期成绩汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号A2:OA2:M17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导员签名:____________________</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,9 +249,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -319,16 +279,41 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="华文隶书"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -336,20 +321,534 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -649,1216 +1148,1277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24">
+        <v>20210103001</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20210103001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25">
         <v>82</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>78</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="25">
         <v>94</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="25">
         <v>70</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="25">
         <v>92</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="39">
         <v>91</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="31">
         <f>SUM(D3:J3)</f>
         <v>572</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="25">
         <f>RANK(K3:K25,$K$3:$K$25,0)</f>
         <v>8</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3" s="26" t="str">
         <f>IF(K3&gt;=595,IF(MIN(D3:J3)&gt;=80,"优秀",""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>20210103002</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
         <v>90</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>98</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>82</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>87</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>69</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="40">
         <v>86</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="32">
         <f t="shared" ref="K4:K25" si="0">SUM(D4:J4)</f>
         <v>587</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L25" si="1">RANK(K4:K26,$K$3:$K$25,0)</f>
         <v>5</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="6" t="str">
         <f t="shared" ref="M4:M25" si="2">IF(K4&gt;=595,IF(MIN(D4:J4)&gt;=80,"优秀",""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>20210103003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
         <v>72</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>83</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>83</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>64</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>82</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="41">
         <v>49</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="33">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>20210103004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
         <v>82</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>84</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>87</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>86</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>81</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>90</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="40">
         <v>86</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="32">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>20210103005</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
         <v>81</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>93</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>88</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>49</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>73</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>92</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="41">
         <v>74</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="33">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>20210103006</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
         <v>69</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>80</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>83</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>86</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="40">
         <v>93</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="32">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>20210103007</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
         <v>87</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>94</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>91</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>85</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>90</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>82</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="41">
         <v>85</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="33">
         <f t="shared" si="0"/>
         <v>614</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>20210103008</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>94</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>91</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>82</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>84</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="40">
         <v>72</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="32">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>20210103009</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>80</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>89</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>82</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>87</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>86</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>91</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="41">
         <v>63</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="33">
         <f t="shared" si="0"/>
         <v>578</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>20210103010</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
         <v>93</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>75</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>76</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>88</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>95</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>71</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="40">
         <v>74</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="32">
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>20210103011</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
         <v>88</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>87</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>85</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>65</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>83</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="41">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="33">
         <f t="shared" si="0"/>
         <v>565</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>20210103012</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
         <v>84</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>82</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>81</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>69</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>75</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>72</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="40">
         <v>95</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="32">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M14" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>20210103013</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8">
         <v>62</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>81</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>70</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>90</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>60</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>77</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="41">
         <v>72</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="33">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M15" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>20210103014</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
         <v>81</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>87</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>92</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>75</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>90</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>62</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="40">
         <v>75</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="32">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>20210103015</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8">
         <v>67</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>62</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>52</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>80</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>85</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>48</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="41">
         <v>71</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="33">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>20210103016</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>86</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>65</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>69</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>83</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>70</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>60</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="40">
         <v>52</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="32">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>20210103017</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8">
         <v>95</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>83</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>92</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>87</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>80</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>92</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="41">
         <v>78</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="33">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M19" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>20210103018</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
         <v>80</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>90</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>94</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>90</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>65</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>61</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="40">
         <v>60</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="32">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>20210103019</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8">
         <v>63</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>48</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>39</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>70</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>60</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="9">
         <v>51</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="41">
         <v>56</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="33">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>20210103020</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
         <v>80</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>75</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>65</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>60</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>80</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>70</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="40">
         <v>79</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="32">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>20210103021</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8">
         <v>88</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>80</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <v>83</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <v>87</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="8">
         <v>81</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="8">
         <v>90</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="42">
         <v>86</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="33">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="10" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>20210103022</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
         <v>68</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <v>78</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="5">
         <v>65</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <v>90</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>90</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <v>80</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="43">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="32">
         <f t="shared" si="0"/>
         <v>551</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
         <v>20210103023</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="28">
         <v>81</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="28">
         <v>72</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="28">
         <v>89</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="28">
         <v>76</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="28">
         <v>76</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="28">
         <v>68</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="44">
         <v>61</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="34">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21">
         <f>AVERAGE(D3:D25)</f>
         <v>78.913043478260875</v>
       </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:K26" si="3">AVERAGE(E3:E25)</f>
+      <c r="E26" s="21">
+        <f t="shared" ref="E26:J26" si="3">AVERAGE(E3:E25)</f>
         <v>79.739130434782609</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="21">
         <f t="shared" si="3"/>
         <v>79.130434782608702</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="21">
         <f t="shared" si="3"/>
         <v>79.652173913043484</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="21">
         <f t="shared" si="3"/>
         <v>77.521739130434781</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="21">
         <f t="shared" si="3"/>
         <v>76.217391304347828</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="45">
         <f t="shared" si="3"/>
         <v>74.695652173913047</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27">
+      <c r="K26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
         <f>MAX(D3:D25)</f>
         <v>95</v>
       </c>
-      <c r="E27">
-        <f t="shared" ref="E27:K27" si="4">MAX(E3:E25)</f>
+      <c r="E27" s="9">
+        <f t="shared" ref="E27:J27" si="4">MAX(E3:E25)</f>
         <v>94</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="9">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="41">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28">
+      <c r="K27" s="36"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
         <f>MIN(D3:D25)</f>
         <v>56</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <f t="shared" ref="E28:J28" si="5">MIN(E3:E25)</f>
         <v>48</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="9">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="9">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="41">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="K28" s="36"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16">
         <f>COUNTIF(D3:D25,"&gt;=60")/COUNT(D3:D25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="16">
         <f t="shared" ref="E29:J29" si="6">COUNTIF(E3:E25,"&gt;=60")/COUNT(E3:E25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="16">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="16">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="16">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="16">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="46">
         <f t="shared" si="6"/>
         <v>0.86956521739130432</v>
       </c>
-    </row>
+      <c r="K29" s="37"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="A26:A29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <conditionalFormatting sqref="D3:J25">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L智能物联2103班&amp;D</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/大学信息技术/项目3/实训2/学生成绩表.xlsx
+++ b/大学信息技术/项目3/实训2/学生成绩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -322,7 +322,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -343,9 +343,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -355,28 +353,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -386,150 +369,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -591,16 +430,81 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -608,15 +512,17 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -628,10 +534,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -643,10 +549,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -658,29 +564,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -689,144 +580,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,10 +1033,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1171,1233 +1053,1232 @@
     <col min="11" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>20210103001</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="7">
         <v>82</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="7">
         <v>78</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="7">
         <v>65</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="7">
         <v>94</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="7">
         <v>70</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="7">
         <v>92</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="14">
         <v>91</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="10">
         <f>SUM(D3:J3)</f>
         <v>572</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="7">
         <f>RANK(K3:K25,$K$3:$K$25,0)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="26" t="str">
+      <c r="M3" s="14" t="str">
         <f>IF(K3&gt;=595,IF(MIN(D3:J3)&gt;=80,"优秀",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="30">
         <v>20210103002</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>90</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>75</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>98</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>82</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>87</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>69</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="15">
         <v>86</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K25" si="0">SUM(D4:J4)</f>
         <v>587</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L25" si="1">RANK(K4:K26,$K$3:$K$25,0)</f>
         <v>5</v>
       </c>
-      <c r="M4" s="6" t="str">
+      <c r="M4" s="15" t="str">
         <f t="shared" ref="M4:M25" si="2">IF(K4&gt;=595,IF(MIN(D4:J4)&gt;=80,"优秀",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="31">
         <v>20210103003</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>72</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>83</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>83</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <v>53</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>64</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>82</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="16">
         <v>49</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="30">
         <v>20210103004</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>82</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>84</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>87</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>86</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>81</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>90</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="15">
         <v>86</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M6" s="6" t="str">
+      <c r="M6" s="15" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="31">
         <v>20210103005</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <v>81</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>93</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>88</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>49</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>73</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>92</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="16">
         <v>74</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="30">
         <v>20210103006</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>69</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>90</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>80</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>83</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>78</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>86</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="15">
         <v>93</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="M8" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="31">
         <v>20210103007</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>87</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>94</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <v>91</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <v>85</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>90</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>82</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="16">
         <v>85</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>614</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="16" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="30">
         <v>20210103008</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>56</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>83</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>94</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>91</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>82</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>84</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="15">
         <v>72</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M10" s="6" t="str">
+      <c r="M10" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="31">
         <v>20210103009</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>80</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>89</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>82</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="4">
         <v>87</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>86</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <v>91</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="16">
         <v>63</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>578</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="30">
         <v>20210103010</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>93</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>75</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>76</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>88</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>95</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>71</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="15">
         <v>74</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M12" s="6" t="str">
+      <c r="M12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="31">
         <v>20210103011</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="3">
         <v>88</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>87</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>85</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="4">
         <v>77</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>65</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <v>83</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="16">
         <v>80</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>565</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="30">
         <v>20210103012</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>84</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>82</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>81</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>69</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>75</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>72</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="15">
         <v>95</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M14" s="6" t="str">
+      <c r="M14" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="31">
         <v>20210103013</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <v>62</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>81</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>70</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>90</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>60</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>77</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="16">
         <v>72</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="30">
         <v>20210103014</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>81</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>87</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>92</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>75</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="1">
         <v>90</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="1">
         <v>62</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="15">
         <v>75</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="M16" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="31">
         <v>20210103015</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="3">
         <v>67</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>62</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="4">
         <v>52</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="4">
         <v>80</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4">
         <v>85</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="4">
         <v>48</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="16">
         <v>71</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="30">
         <v>20210103016</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>86</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>65</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>69</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>83</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>60</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="15">
         <v>52</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="M18" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="31">
         <v>20210103017</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="3">
         <v>95</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>83</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="4">
         <v>92</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="4">
         <v>87</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="4">
         <v>80</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="4">
         <v>92</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="16">
         <v>78</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" s="10" t="str">
+      <c r="M19" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="30">
         <v>20210103018</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>80</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>90</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>94</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>90</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>65</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="1">
         <v>61</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="15">
         <v>60</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="M20" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="31">
         <v>20210103019</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="3">
         <v>63</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="4">
         <v>48</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="4">
         <v>39</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="4">
         <v>70</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="4">
         <v>60</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="4">
         <v>51</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="16">
         <v>56</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="30">
         <v>20210103020</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>80</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>75</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>65</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>60</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>80</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>70</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="15">
         <v>79</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="11">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="M22" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="31">
         <v>20210103021</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="3">
         <v>88</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3">
         <v>80</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <v>83</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>87</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
         <v>81</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="3">
         <v>90</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="17">
         <v>86</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="16" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="30">
         <v>20210103022</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>68</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>78</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>65</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>90</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="2">
         <v>90</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <v>80</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="18">
         <v>80</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="11">
         <f t="shared" si="0"/>
         <v>551</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="M24" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+      <c r="A25" s="32">
         <v>20210103023</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="8">
         <v>81</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="8">
         <v>72</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="8">
         <v>89</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="8">
         <v>76</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="8">
         <v>76</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="8">
         <v>68</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="19">
         <v>61</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="13">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M25" s="30" t="str">
+      <c r="M25" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
         <f>AVERAGE(D3:D25)</f>
         <v>78.913043478260875</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="6">
         <f t="shared" ref="E26:J26" si="3">AVERAGE(E3:E25)</f>
         <v>79.739130434782609</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>79.130434782608702</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="6">
         <f t="shared" si="3"/>
         <v>79.652173913043484</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="6">
         <f t="shared" si="3"/>
         <v>77.521739130434781</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="6">
         <f t="shared" si="3"/>
         <v>76.217391304347828</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="20">
         <f t="shared" si="3"/>
         <v>74.695652173913047</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
         <f>MAX(D3:D25)</f>
         <v>95</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="4">
         <f t="shared" ref="E27:J27" si="4">MAX(E3:E25)</f>
         <v>94</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="4">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="4">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="4">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="4">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="16">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <f>MIN(D3:D25)</f>
         <v>56</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <f t="shared" ref="E28:J28" si="5">MIN(E3:E25)</f>
         <v>48</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="4">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="4">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="4">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="4">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="16">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16">
+      <c r="C29" s="9"/>
+      <c r="D29" s="39">
         <f>COUNTIF(D3:D25,"&gt;=60")/COUNT(D3:D25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="39">
         <f t="shared" ref="E29:J29" si="6">COUNTIF(E3:E25,"&gt;=60")/COUNT(E3:E25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="39">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="39">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="39">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="39">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="40">
         <f t="shared" si="6"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>

--- a/大学信息技术/项目3/实训2/学生成绩表.xlsx
+++ b/大学信息技术/项目3/实训2/学生成绩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,37 +491,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -572,6 +541,51 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -580,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,6 +656,27 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,64 +686,52 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,7 +1059,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1054,65 +1077,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+      <c r="A3" s="21">
         <v>20210103001</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1156,7 +1179,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="22">
         <v>20210103002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1200,7 +1223,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31">
+      <c r="A5" s="23">
         <v>20210103003</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1244,7 +1267,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
+      <c r="A6" s="22">
         <v>20210103004</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1288,7 +1311,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31">
+      <c r="A7" s="23">
         <v>20210103005</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1332,7 +1355,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
+      <c r="A8" s="22">
         <v>20210103006</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1376,7 +1399,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31">
+      <c r="A9" s="23">
         <v>20210103007</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1420,7 +1443,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
+      <c r="A10" s="22">
         <v>20210103008</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1464,7 +1487,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
+      <c r="A11" s="23">
         <v>20210103009</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1508,7 +1531,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
+      <c r="A12" s="22">
         <v>20210103010</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1552,7 +1575,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
+      <c r="A13" s="23">
         <v>20210103011</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1596,7 +1619,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
+      <c r="A14" s="22">
         <v>20210103012</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1640,7 +1663,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
+      <c r="A15" s="23">
         <v>20210103013</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1684,7 +1707,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30">
+      <c r="A16" s="22">
         <v>20210103014</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1728,7 +1751,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
+      <c r="A17" s="23">
         <v>20210103015</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1772,7 +1795,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30">
+      <c r="A18" s="22">
         <v>20210103016</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1816,7 +1839,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
+      <c r="A19" s="23">
         <v>20210103017</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1860,7 +1883,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
+      <c r="A20" s="22">
         <v>20210103018</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1904,7 +1927,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31">
+      <c r="A21" s="23">
         <v>20210103019</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1948,7 +1971,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30">
+      <c r="A22" s="22">
         <v>20210103020</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1992,7 +2015,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31">
+      <c r="A23" s="23">
         <v>20210103021</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2036,7 +2059,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
+      <c r="A24" s="22">
         <v>20210103022</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2080,7 +2103,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="24">
         <v>20210103023</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2118,13 +2141,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M25" s="33" t="str">
+      <c r="M25" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2159,14 +2182,14 @@
         <f t="shared" si="3"/>
         <v>74.695652173913047</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="35"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2199,12 +2222,12 @@
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="37"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2237,47 +2260,47 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="37"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="39">
+      <c r="D29" s="26">
         <f>COUNTIF(D3:D25,"&gt;=60")/COUNT(D3:D25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="26">
         <f t="shared" ref="E29:J29" si="6">COUNTIF(E3:E25,"&gt;=60")/COUNT(E3:E25)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="26">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="26">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="26">
         <f t="shared" si="6"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="27">
         <f t="shared" si="6"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
